--- a/data/g_vs_hardcoded_COIN_2_checkers.xlsx
+++ b/data/g_vs_hardcoded_COIN_2_checkers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Win rate</t>
@@ -446,244 +451,206 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>23.943</v>
+        <v>23.217</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>79.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.898999999999999</v>
+        <v>9.016</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.128</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73.3</v>
+        <v>71.8</v>
       </c>
       <c r="C5" t="n">
-        <v>11.099</v>
+        <v>10.766</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>7.806</v>
+        <v>7.919</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="C7" t="n">
-        <v>11.389</v>
+        <v>11.535</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>59.9</v>
+        <v>61.9</v>
       </c>
       <c r="C8" t="n">
-        <v>22.657</v>
+        <v>22.559</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.874</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.936</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>22.871</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
       </c>
       <c r="B11" t="n">
         <v>66.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>27.169</v>
+        <v>27.198</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>16.102</v>
+        <v>16.171</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C13" t="n">
-        <v>22.576</v>
+        <v>22.565</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>43.3</v>
+        <v>46.2</v>
       </c>
       <c r="C14" t="n">
-        <v>29.488</v>
+        <v>29.063</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="C15" t="n">
-        <v>22.075</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>85.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>16.115</v>
+        <v>16.386</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>27.2</v>
+        <v>24.7</v>
       </c>
       <c r="C17" t="n">
-        <v>17.7</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B18" t="n">
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>10.362</v>
+        <v>10.302</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>20.023</v>
+        <v>19.918</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -693,62 +660,52 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B21" t="n">
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>19.882</v>
+        <v>19.462</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>86.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>24.974</v>
+        <v>24.733</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B23" t="n">
-        <v>92.2</v>
+        <v>92.8</v>
       </c>
       <c r="C23" t="n">
-        <v>21.234</v>
+        <v>21.216</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B24" t="n">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="C24" t="n">
-        <v>24.497</v>
+        <v>24.167</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -758,153 +715,129 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B26" t="n">
         <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>19.892</v>
+        <v>19.798</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>86.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="C27" t="n">
-        <v>14.659</v>
+        <v>14.761</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>68.40000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.344</v>
+        <v>6.351</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>54</v>
+        <v>55.9</v>
       </c>
       <c r="C29" t="n">
-        <v>6.234</v>
+        <v>6.245</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>11.541</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="C31" t="n">
-        <v>28.349</v>
+        <v>28.558</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>37.4</v>
+        <v>40.7</v>
       </c>
       <c r="C32" t="n">
-        <v>8.324</v>
+        <v>8.308</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="B33" t="n">
         <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>9.143000000000001</v>
+        <v>9.141</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="B34" t="n">
         <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>8.06</v>
+        <v>8.065</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>61.7</v>
+        <v>58.1</v>
       </c>
       <c r="C35" t="n">
-        <v>20.109</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>59.5</v>
+        <v>60.8</v>
       </c>
       <c r="C36" t="n">
-        <v>8.478999999999999</v>
+        <v>8.625999999999999</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -914,23 +847,19 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="B38" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>12.868</v>
+        <v>13.128</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>100</v>
@@ -940,107 +869,201 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
       <c r="C40" t="n">
-        <v>13.535</v>
+        <v>13.792</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>10.467</v>
+        <v>10.377</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="B42" t="n">
-        <v>39.7</v>
+        <v>40.7</v>
       </c>
       <c r="C42" t="n">
-        <v>4.404</v>
+        <v>4.486</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="B43" t="n">
         <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>17.798</v>
+        <v>17.726</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="B44" t="n">
         <v>100</v>
       </c>
       <c r="C44" t="n">
-        <v>20.707</v>
+        <v>20.683</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="B45" t="n">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="C45" t="n">
-        <v>8.539999999999999</v>
+        <v>8.422000000000001</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>64</v>
       </c>
       <c r="B46" t="n">
-        <v>28.3</v>
+        <v>25.8</v>
       </c>
       <c r="C46" t="n">
-        <v>26.306</v>
+        <v>26.942</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>21.6</v>
+        <v>19.5</v>
       </c>
       <c r="C47" t="n">
-        <v>6.365</v>
+        <v>6.329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B49" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25.047</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B52" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>23.581</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B53" t="n">
+        <v>93</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B54" t="n">
+        <v>60</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25.093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>23.955</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B56" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>22.444</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B57" t="n">
+        <v>100</v>
+      </c>
+      <c r="C57" t="n">
+        <v>17.22</v>
       </c>
     </row>
   </sheetData>
